--- a/data/beds-vents-1110.xlsx
+++ b/data/beds-vents-1110.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="638">
   <si>
     <t>DATE</t>
   </si>
@@ -1925,6 +1925,9 @@
   </si>
   <si>
     <t>2021-11-08</t>
+  </si>
+  <si>
+    <t>2021-11-09</t>
   </si>
 </sst>
 </file>
@@ -2282,7 +2285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O623"/>
+  <dimension ref="A1:O624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30741,6 +30744,53 @@
         <v>74.34</v>
       </c>
     </row>
+    <row r="624" spans="1:15">
+      <c r="A624" t="s">
+        <v>637</v>
+      </c>
+      <c r="B624">
+        <v>2269</v>
+      </c>
+      <c r="C624">
+        <v>401</v>
+      </c>
+      <c r="D624">
+        <v>1258</v>
+      </c>
+      <c r="E624">
+        <v>610</v>
+      </c>
+      <c r="F624">
+        <v>2773</v>
+      </c>
+      <c r="G624">
+        <v>155</v>
+      </c>
+      <c r="H624">
+        <v>584</v>
+      </c>
+      <c r="I624">
+        <v>2034</v>
+      </c>
+      <c r="J624">
+        <v>17.67</v>
+      </c>
+      <c r="K624">
+        <v>55.44</v>
+      </c>
+      <c r="L624">
+        <v>26.88</v>
+      </c>
+      <c r="M624">
+        <v>5.59</v>
+      </c>
+      <c r="N624">
+        <v>21.06</v>
+      </c>
+      <c r="O624">
+        <v>73.34999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
